--- a/ereignis_gemeinschaft.xlsx
+++ b/ereignis_gemeinschaft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\DKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA9315E-0153-4CC3-9DDB-1497FB77C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487A067-0C1C-42A9-9E12-C68A502A5A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E33FCE3D-7E02-49E8-99F3-7BA445CF3585}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E33FCE3D-7E02-49E8-99F3-7BA445CF3585}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Text</t>
   </si>
@@ -47,13 +47,175 @@
     <t>Du kaufst Milch &amp; Kaffee</t>
   </si>
   <si>
-    <t>Zahle 20€.</t>
-  </si>
-  <si>
     <t>Du bist mit dem Opel Movano ins Schleudern gekommen</t>
   </si>
   <si>
-    <t>Zahle 200€ Schmerzensgeld.</t>
+    <t>Du vergisst den Tragsessel in Horn</t>
+  </si>
+  <si>
+    <t>Zahle 50€</t>
+  </si>
+  <si>
+    <t>Du drehst die Heizung um 1 Grad höher</t>
+  </si>
+  <si>
+    <t>Du hast den 402er Pager ausgeschaltet</t>
+  </si>
+  <si>
+    <t>Du hast die Funkordnung missachtet</t>
+  </si>
+  <si>
+    <t>Harald verflucht dich und du musst 30€ Pucki Gutschein zahlen</t>
+  </si>
+  <si>
+    <t>Du hast in den RTW/KTW Benzin getankt</t>
+  </si>
+  <si>
+    <t>Hannes gibt dir das Milchgeld zurück</t>
+  </si>
+  <si>
+    <t>Gehe sofort ins Gefängnis</t>
+  </si>
+  <si>
+    <t>Du hast den Rasen auf der Dienststelle gemäht</t>
+  </si>
+  <si>
+    <t>Du erledgst die Pfandrückgabe und behältst das Geld</t>
+  </si>
+  <si>
+    <t>Dein KTR urinierte auf dich</t>
+  </si>
+  <si>
+    <t>Du hast die Altkleider zum Stadl gebracht</t>
+  </si>
+  <si>
+    <t>Du hast einen Zivi beim Kärchern erwischt</t>
+  </si>
+  <si>
+    <t>Du übernimmst spontan einen freien Dienst</t>
+  </si>
+  <si>
+    <t>Zahle 50€ an Peter</t>
+  </si>
+  <si>
+    <t>Du bekommst 20€</t>
+  </si>
+  <si>
+    <t>Du bekommst 50€</t>
+  </si>
+  <si>
+    <t>Du steckst dir 30€ in die Geldbörse</t>
+  </si>
+  <si>
+    <t>Du bekommst 10€ Trinkgeld</t>
+  </si>
+  <si>
+    <t>Als Belohnung bekommst du 80€</t>
+  </si>
+  <si>
+    <t>Ricardo ehrt dich mit 20€</t>
+  </si>
+  <si>
+    <t>Du hast beim Traktorrennen erneut einen Krankenstand ausgefasst</t>
+  </si>
+  <si>
+    <t>Du musst 2 Runden aussetzen</t>
+  </si>
+  <si>
+    <t>Rücke vor zum KH/RK Horn</t>
+  </si>
+  <si>
+    <t>Das Tor vom KH Gmünd wurde von dir beschädigt</t>
+  </si>
+  <si>
+    <t>Gehe 3 Felder zurück</t>
+  </si>
+  <si>
+    <t>Du lehnst am RTW-C einen KTR ab</t>
+  </si>
+  <si>
+    <t>Setze 1 Runde aus</t>
+  </si>
+  <si>
+    <t>Bei der Weihnachtsfeier beschimpfst du den Geschäftsführer</t>
+  </si>
+  <si>
+    <t>Du bringst einen Schlaganfall nach Gmünd</t>
+  </si>
+  <si>
+    <t>Du musst sofort ins Gefängnis</t>
+  </si>
+  <si>
+    <t>Rücke 2 Felder vor</t>
+  </si>
+  <si>
+    <t>Du hast in der 404er Garage geraucht</t>
+  </si>
+  <si>
+    <t>Peter hatte einen schlechten Tag und schrie dich an</t>
+  </si>
+  <si>
+    <t>Rücke 2 Felder zurück</t>
+  </si>
+  <si>
+    <t>Die Leitstelle schickt dir 3 K2 Transporte</t>
+  </si>
+  <si>
+    <t>Rücke vor zum KH Horn</t>
+  </si>
+  <si>
+    <t>Du bekommst keinen Startbonus</t>
+  </si>
+  <si>
+    <t>Der Arzt ignoriert dich bei der Übergabe</t>
+  </si>
+  <si>
+    <t>Setze 2 Runden aus</t>
+  </si>
+  <si>
+    <t>Rücke vor zum Strandbad</t>
+  </si>
+  <si>
+    <t>Du hast beim Schrammelklang-Festibval deinen Dienst abgesagt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du hast die neue FSJlerin/Zivi angebraten </t>
+  </si>
+  <si>
+    <t>Du hast Geburtstag und nimmst eine Jause mit</t>
+  </si>
+  <si>
+    <t>Du benützt die Liftabkürzung in GD</t>
+  </si>
+  <si>
+    <t>Die Weihnachtsfeier endete abrupt</t>
+  </si>
+  <si>
+    <t>Du hast die falsche Cola mitgenommen</t>
+  </si>
+  <si>
+    <t>Du machst fehlerfrei Dokus</t>
+  </si>
+  <si>
+    <t>Stefan schenkt dir eine Freikarte / 50€</t>
+  </si>
+  <si>
+    <t>Du versteckst dich als Dienstführer mit den Zivis vor der ZISA im Wald</t>
+  </si>
+  <si>
+    <t>Du hast einem verwirrten Schrammelklang Besucher ein Pflaster auf die große Zehe geklebt</t>
+  </si>
+  <si>
+    <t>Zahle 20€</t>
+  </si>
+  <si>
+    <t>Zahle 200€ Schmerzensgeld</t>
+  </si>
+  <si>
+    <t>Behalte dir diese Karte, sie rettet dich aus dem Gefängnis</t>
+  </si>
+  <si>
+    <t>Du hast Dominanz bewiesen und bekommst beim Start doppelten Bonus</t>
   </si>
 </sst>
 </file>
@@ -428,20 +590,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C429C92-8DA9-4C43-8437-4B47C06F2492}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,20 +611,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
